--- a/docs/database.xlsx
+++ b/docs/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108B92F0-F407-4E95-9BDF-FB3519DEB380}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AA5B9-3719-4497-AD93-86FC9E748FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
+    <workbookView xWindow="930" yWindow="1245" windowWidth="19560" windowHeight="11400" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>user</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Operate Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vidno</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,10 +229,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ldept</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Operate Device Owned Company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +246,18 @@
   </si>
   <si>
     <t>del for device deleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyyy-MM-dd-HH-mm-ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operate Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,13 +446,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
@@ -782,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3509232C-A58C-44C4-BFE1-30A9D0F896D2}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,104 +857,104 @@
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
@@ -988,36 +992,36 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="2" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
@@ -1055,109 +1059,109 @@
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="3"/>
+      <c r="E30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="2" t="s">
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
@@ -1195,155 +1199,186 @@
       <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3" t="s">
+      <c r="D40" s="3"/>
+      <c r="E40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E40:G44"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A35:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:B44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A10:B12"/>
@@ -1360,54 +1395,25 @@
     <mergeCell ref="A5:G6"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G12"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A35:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:B44"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E40:G44"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/database.xlsx
+++ b/docs/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AA5B9-3719-4497-AD93-86FC9E748FA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C7CC3-2F3E-4822-82BF-E613CE1997F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="1245" windowWidth="19560" windowHeight="11400" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -368,24 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -415,6 +397,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39994506668294322"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -423,19 +435,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -446,33 +458,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="6">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="5">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="2" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="3" builtinId="18"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="5" xr:uid="{368C155D-B07C-4344-9201-1C7D4FBC0842}"/>
-    <cellStyle name="样式 2" xfId="6" xr:uid="{94A6A48C-87E6-46A6-9DDD-E918A1634C12}"/>
-    <cellStyle name="注释" xfId="4" builtinId="10"/>
+    <cellStyle name="样式 1" xfId="3" xr:uid="{368C155D-B07C-4344-9201-1C7D4FBC0842}"/>
+    <cellStyle name="样式 2" xfId="4" xr:uid="{94A6A48C-87E6-46A6-9DDD-E918A1634C12}"/>
+    <cellStyle name="样式 3" xfId="5" xr:uid="{710E0207-18BF-4886-954F-9A6092401807}"/>
+    <cellStyle name="样式 4" xfId="6" xr:uid="{96358E3D-C12D-4A48-8757-3F36162BCC8B}"/>
+    <cellStyle name="注释" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -786,31 +798,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3509232C-A58C-44C4-BFE1-30A9D0F896D2}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -822,39 +834,39 @@
       <c r="G3" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -957,39 +969,39 @@
       <c r="G13" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1024,39 +1036,39 @@
       <c r="G20" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1164,39 +1176,39 @@
       <c r="K32" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -1331,16 +1343,63 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E40:G44"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C43:D43"/>
@@ -1357,63 +1416,16 @@
     <mergeCell ref="A40:B44"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E40:G44"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/database.xlsx
+++ b/docs/database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48C7CC3-2F3E-4822-82BF-E613CE1997F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABB998-8244-4FF3-A334-D5A23EA48A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
+    <workbookView xWindow="915" yWindow="2625" windowWidth="19560" windowHeight="11400" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -467,13 +467,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -798,31 +798,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3509232C-A58C-44C4-BFE1-30A9D0F896D2}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
@@ -834,39 +834,39 @@
       <c r="G3" s="1"/>
     </row>
     <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -969,39 +969,39 @@
       <c r="G13" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="6"/>
+      <c r="C18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7" t="s">
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
@@ -1036,39 +1036,39 @@
       <c r="G20" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
@@ -1176,39 +1176,39 @@
       <c r="K32" s="4"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -1343,25 +1343,54 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E40:G44"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="A35:G36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="A40:B44"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:G26"/>
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A10:B12"/>
@@ -1378,54 +1407,25 @@
     <mergeCell ref="A5:G6"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G12"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="A35:G36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="A40:B44"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E40:G44"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/database.xlsx
+++ b/docs/database.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeServer\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03ABB998-8244-4FF3-A334-D5A23EA48A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491DC14-C9C9-48EA-8BD5-7F732FEE34E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="2625" windowWidth="19560" windowHeight="11400" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
+    <workbookView xWindow="1260" yWindow="2970" windowWidth="19560" windowHeight="11400" xr2:uid="{AE312ADE-87B1-4B4D-83D2-CE1B4B7A0A26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -798,8 +798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3509232C-A58C-44C4-BFE1-30A9D0F896D2}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46:D46"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1343,16 +1343,63 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="E40:G44"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A16:G17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="A5:G6"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E10:G12"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="A30:B32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="C38:D38"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C43:D43"/>
@@ -1369,63 +1416,16 @@
     <mergeCell ref="A40:B44"/>
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
-    <mergeCell ref="H26:K26"/>
-    <mergeCell ref="A30:B32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="H32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="A10:B12"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="A5:G6"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H19:K19"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A16:G17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="E40:G44"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
